--- a/excel/excel/Hero.xlsx
+++ b/excel/excel/Hero.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hero" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hero!$A$4:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hero!$A$4:$B$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -56,7 +56,139 @@
     <t>Sort</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>c/s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>card_1001.png</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>card_1002.png</t>
+  </si>
+  <si>
+    <t>刘协</t>
+  </si>
+  <si>
+    <t>card_1003.png</t>
+  </si>
+  <si>
+    <t>张让</t>
+  </si>
+  <si>
+    <t>card_1004.png</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>card_1005.png</t>
+  </si>
+  <si>
+    <t>何太后</t>
+  </si>
+  <si>
+    <t>card_1006.png</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>card_1007.png</t>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>card_1008.png</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>card_1009.png</t>
+  </si>
+  <si>
+    <t>董卓sp</t>
+  </si>
+  <si>
+    <t>card_1010.png</t>
+  </si>
+  <si>
+    <t>吕布sp</t>
+  </si>
+  <si>
+    <t>card_1011.png</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>card_1012.png</t>
+  </si>
+  <si>
+    <t>步练师</t>
+  </si>
+  <si>
+    <t>card_1013.png</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>card_1014.png</t>
+  </si>
+  <si>
+    <t>吕蒙</t>
+  </si>
+  <si>
+    <t>card_1015.png</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>card_1016.png</t>
+  </si>
+  <si>
+    <t>刘备sp</t>
+  </si>
+  <si>
+    <t>card_1017.png</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>card_1018.png</t>
+  </si>
+  <si>
+    <t>陆逊</t>
+  </si>
+  <si>
+    <t>card_1019.png</t>
+  </si>
+  <si>
+    <t>马云禄</t>
+  </si>
+  <si>
+    <t>card_1020.png</t>
+  </si>
+  <si>
+    <t>黄月英</t>
+  </si>
+  <si>
+    <t>card_1021.png</t>
+  </si>
+  <si>
+    <t>马超</t>
   </si>
 </sst>
 </file>
@@ -1028,19 +1160,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="4" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="16.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1185,11 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1067,8 +1202,11 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1081,317 +1219,386 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="4">
         <v>1001</v>
       </c>
-      <c r="C5" s="1">
-        <v>1001</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" s="4">
         <v>1002</v>
       </c>
-      <c r="C6" s="1">
-        <v>1002</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" s="4">
         <v>1003</v>
       </c>
-      <c r="C7" s="1">
-        <v>1003</v>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" s="4">
         <v>1004</v>
       </c>
-      <c r="C8" s="1">
-        <v>1004</v>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" s="4">
         <v>1005</v>
       </c>
-      <c r="C9" s="1">
-        <v>1005</v>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" s="4">
         <v>1006</v>
       </c>
-      <c r="C10" s="1">
-        <v>1006</v>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" s="4">
         <v>1007</v>
       </c>
-      <c r="C11" s="1">
-        <v>1007</v>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" s="4">
         <v>1008</v>
       </c>
-      <c r="C12" s="1">
-        <v>1008</v>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" s="4">
         <v>1009</v>
       </c>
-      <c r="C13" s="1">
-        <v>1009</v>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" s="4">
         <v>1010</v>
       </c>
-      <c r="C14" s="1">
-        <v>1010</v>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" s="4">
         <v>1011</v>
       </c>
-      <c r="C15" s="1">
-        <v>1011</v>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" s="4">
         <v>1012</v>
       </c>
-      <c r="C16" s="1">
-        <v>1012</v>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" s="4">
         <v>1013</v>
       </c>
-      <c r="C17" s="1">
-        <v>1013</v>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" s="4">
         <v>1014</v>
       </c>
-      <c r="C18" s="1">
-        <v>1014</v>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" s="4">
         <v>1015</v>
       </c>
-      <c r="C19" s="1">
-        <v>1015</v>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" s="4">
         <v>1016</v>
       </c>
-      <c r="C20" s="1">
-        <v>1016</v>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D20" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" s="4">
         <v>1017</v>
       </c>
-      <c r="C21" s="1">
-        <v>1017</v>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" s="4">
         <v>1018</v>
       </c>
-      <c r="C22" s="1">
-        <v>1018</v>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" s="4">
         <v>1019</v>
       </c>
-      <c r="C23" s="1">
-        <v>1019</v>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" s="4">
         <v>1020</v>
       </c>
-      <c r="C24" s="1">
-        <v>1020</v>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" s="4">
         <v>1021</v>
       </c>
-      <c r="C25" s="1">
-        <v>1021</v>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="1">
         <v>21</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:B5" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:B25" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
